--- a/cybersecurity_stocks.xlsx
+++ b/cybersecurity_stocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB347807-53BF-432B-B786-50A8CCE03922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E88EB0-620D-4BB2-AA18-E85DCA69ED1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19410" yWindow="1215" windowWidth="18555" windowHeight="11970" xr2:uid="{C49D2964-27D1-4A91-99C8-4FCFD2A434B5}"/>
+    <workbookView xWindow="19410" yWindow="1215" windowWidth="18555" windowHeight="19155" xr2:uid="{C49D2964-27D1-4A91-99C8-4FCFD2A434B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t>Cyber Security Stock List</t>
   </si>
@@ -83,298 +83,445 @@
     <t>Clavister Holding AB</t>
   </si>
   <si>
+    <t>Corero Network Security plc</t>
+  </si>
+  <si>
+    <t>CrowdStrike Holdings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CyberArk Software </t>
+  </si>
+  <si>
+    <t>CYREN</t>
+  </si>
+  <si>
+    <t>F-Secure Oyj</t>
+  </si>
+  <si>
+    <t>F5 Networks</t>
+  </si>
+  <si>
+    <t>Fingerprint Cards AB</t>
+  </si>
+  <si>
+    <t>Finjan Holdings</t>
+  </si>
+  <si>
+    <t>FireEye</t>
+  </si>
+  <si>
+    <t>Fortinet</t>
+  </si>
+  <si>
+    <t>Forescout Technologies</t>
+  </si>
+  <si>
+    <t>Gigamon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobalSCAPE </t>
+  </si>
+  <si>
+    <t>Juniper Networks</t>
+  </si>
+  <si>
+    <t>Mimecast</t>
+  </si>
+  <si>
+    <t>NCC Group</t>
+  </si>
+  <si>
+    <t>NortonLifeLock</t>
+  </si>
+  <si>
+    <t>Nxt-ID</t>
+  </si>
+  <si>
+    <t>Okta</t>
+  </si>
+  <si>
+    <t>Palo Alto Networks</t>
+  </si>
+  <si>
+    <t>Precise Biometrics AB</t>
+  </si>
+  <si>
+    <t>Proofpoint</t>
+  </si>
+  <si>
+    <t>Qualys</t>
+  </si>
+  <si>
+    <t>Radware</t>
+  </si>
+  <si>
+    <t>Rapid7</t>
+  </si>
+  <si>
+    <t>Safe-T Group</t>
+  </si>
+  <si>
+    <t>SecureWorks</t>
+  </si>
+  <si>
+    <t>ServiceNow</t>
+  </si>
+  <si>
+    <t>Sophos Group</t>
+  </si>
+  <si>
+    <t>Splunk</t>
+  </si>
+  <si>
+    <t>SSH Communications Security OYJ</t>
+  </si>
+  <si>
+    <t>Telos Corporation</t>
+  </si>
+  <si>
+    <t>Tenable Holdings</t>
+  </si>
+  <si>
+    <t>Trend Micro Incorporated</t>
+  </si>
+  <si>
+    <t>Varonis Systems</t>
+  </si>
+  <si>
+    <t>Verimatrix Societe anonyme</t>
+  </si>
+  <si>
+    <t>Verint Systems</t>
+  </si>
+  <si>
+    <t>VeriSign</t>
+  </si>
+  <si>
+    <t>Vmware</t>
+  </si>
+  <si>
+    <t>Zix Corporation</t>
+  </si>
+  <si>
+    <t>Zscaler</t>
+  </si>
+  <si>
+    <t>AKAM</t>
+  </si>
+  <si>
+    <t>P/E Ratio</t>
+  </si>
+  <si>
+    <t>*MC # in millions</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>ATEN</t>
+  </si>
+  <si>
+    <t>ABT</t>
+  </si>
+  <si>
+    <t>053800</t>
+  </si>
+  <si>
+    <t>AURIONPRO</t>
+  </si>
+  <si>
+    <t>CARB</t>
+  </si>
+  <si>
+    <t>CHKP</t>
+  </si>
+  <si>
+    <t>CSCO</t>
+  </si>
+  <si>
+    <t>CLVA</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>CNS</t>
+  </si>
+  <si>
+    <t>CRWD</t>
+  </si>
+  <si>
+    <t>CYBR</t>
+  </si>
+  <si>
+    <t>CYRN</t>
+  </si>
+  <si>
+    <t>FSC1V</t>
+  </si>
+  <si>
+    <t>FFIV</t>
+  </si>
+  <si>
+    <t>FING-B</t>
+  </si>
+  <si>
+    <t>FNJN</t>
+  </si>
+  <si>
+    <t>FEYE</t>
+  </si>
+  <si>
+    <t>FTNT</t>
+  </si>
+  <si>
+    <t>FSCT</t>
+  </si>
+  <si>
+    <t>GIMO</t>
+  </si>
+  <si>
+    <t>GSB</t>
+  </si>
+  <si>
+    <t>JNPR</t>
+  </si>
+  <si>
+    <t>MIME</t>
+  </si>
+  <si>
+    <t>NCC</t>
+  </si>
+  <si>
+    <t>NLOK</t>
+  </si>
+  <si>
+    <t>NXTD</t>
+  </si>
+  <si>
+    <t>OKTA</t>
+  </si>
+  <si>
+    <t>PANW</t>
+  </si>
+  <si>
+    <t>PREC</t>
+  </si>
+  <si>
+    <t>PFPT</t>
+  </si>
+  <si>
+    <t>QLYS</t>
+  </si>
+  <si>
+    <t>RDWR</t>
+  </si>
+  <si>
+    <t>RPD</t>
+  </si>
+  <si>
+    <t>SFET</t>
+  </si>
+  <si>
+    <t>NOW</t>
+  </si>
+  <si>
+    <t>SOPH</t>
+  </si>
+  <si>
+    <t>SWI</t>
+  </si>
+  <si>
+    <t>SPLK</t>
+  </si>
+  <si>
+    <t>SSH1V</t>
+  </si>
+  <si>
+    <t>TLSRP</t>
+  </si>
+  <si>
+    <t>SCWX</t>
+  </si>
+  <si>
+    <t>TENB</t>
+  </si>
+  <si>
+    <t>SolarWinds Corporation</t>
+  </si>
+  <si>
+    <t>VRNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VMX</t>
+  </si>
+  <si>
+    <t>VRNT</t>
+  </si>
+  <si>
+    <t>VRSN</t>
+  </si>
+  <si>
+    <t>VMW</t>
+  </si>
+  <si>
+    <t>ZIXI</t>
+  </si>
+  <si>
+    <t>ZS</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>application networking, load balancing, Ddos protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security, cloud delivery, performance. </t>
+  </si>
+  <si>
+    <t>enterpsie security solutions</t>
+  </si>
+  <si>
+    <t>mobile &amp; data security</t>
+  </si>
+  <si>
+    <t>unified threat management</t>
+  </si>
+  <si>
+    <t>IT, networking and cybersecurity solutions</t>
+  </si>
+  <si>
+    <t>web performance and security</t>
+  </si>
+  <si>
     <t>Cloudflare</t>
   </si>
   <si>
-    <t>Corero Network Security plc</t>
-  </si>
-  <si>
-    <t>CrowdStrike Holdings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CyberArk Software </t>
-  </si>
-  <si>
-    <t>CYREN</t>
-  </si>
-  <si>
-    <t>F-Secure Oyj</t>
-  </si>
-  <si>
-    <t>F5 Networks</t>
-  </si>
-  <si>
-    <t>Fingerprint Cards AB</t>
-  </si>
-  <si>
-    <t>Finjan Holdings</t>
-  </si>
-  <si>
-    <t>FireEye</t>
-  </si>
-  <si>
-    <t>Fortinet</t>
-  </si>
-  <si>
-    <t>Forescout Technologies</t>
-  </si>
-  <si>
-    <t>Gigamon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlobalSCAPE </t>
-  </si>
-  <si>
-    <t>Juniper Networks</t>
-  </si>
-  <si>
-    <t>Mimecast</t>
-  </si>
-  <si>
-    <t>NCC Group</t>
-  </si>
-  <si>
-    <t>NortonLifeLock</t>
-  </si>
-  <si>
-    <t>Nxt-ID</t>
-  </si>
-  <si>
-    <t>Okta</t>
-  </si>
-  <si>
-    <t>Palo Alto Networks</t>
-  </si>
-  <si>
-    <t>Precise Biometrics AB</t>
-  </si>
-  <si>
-    <t>Proofpoint</t>
-  </si>
-  <si>
-    <t>Qualys</t>
-  </si>
-  <si>
-    <t>Radware</t>
-  </si>
-  <si>
-    <t>Rapid7</t>
-  </si>
-  <si>
-    <t>Safe-T Group</t>
-  </si>
-  <si>
-    <t>SecureWorks</t>
-  </si>
-  <si>
-    <t>ServiceNow</t>
-  </si>
-  <si>
-    <t>Sophos Group</t>
-  </si>
-  <si>
-    <t>Splunk</t>
-  </si>
-  <si>
-    <t>SSH Communications Security OYJ</t>
-  </si>
-  <si>
-    <t>Telos Corporation</t>
-  </si>
-  <si>
-    <t>Tenable Holdings</t>
-  </si>
-  <si>
-    <t>Trend Micro Incorporated</t>
-  </si>
-  <si>
-    <t>Varonis Systems</t>
-  </si>
-  <si>
-    <t>Verimatrix Societe anonyme</t>
-  </si>
-  <si>
-    <t>Verint Systems</t>
-  </si>
-  <si>
-    <t>VeriSign</t>
-  </si>
-  <si>
-    <t>Vmware</t>
-  </si>
-  <si>
-    <t>Zix Corporation</t>
-  </si>
-  <si>
-    <t>Zscaler</t>
-  </si>
-  <si>
-    <t>AKAM</t>
-  </si>
-  <si>
-    <t>P/E Ratio</t>
-  </si>
-  <si>
-    <t>*MC # in millions</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>ATEN</t>
-  </si>
-  <si>
-    <t>ABT</t>
-  </si>
-  <si>
-    <t>053800</t>
-  </si>
-  <si>
-    <t>AURIONPRO</t>
-  </si>
-  <si>
-    <t>CARB</t>
-  </si>
-  <si>
-    <t>CHKP</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>CLVA</t>
-  </si>
-  <si>
-    <t>NET</t>
-  </si>
-  <si>
-    <t>CNS</t>
-  </si>
-  <si>
-    <t>CRWD</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>CYRN</t>
-  </si>
-  <si>
-    <t>FSC1V</t>
-  </si>
-  <si>
-    <t>FFIV</t>
-  </si>
-  <si>
-    <t>FING-B</t>
-  </si>
-  <si>
-    <t>FNJN</t>
-  </si>
-  <si>
-    <t>FEYE</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>FSCT</t>
-  </si>
-  <si>
-    <t>GIMO</t>
-  </si>
-  <si>
-    <t>GSB</t>
-  </si>
-  <si>
-    <t>JNPR</t>
-  </si>
-  <si>
-    <t>MIME</t>
-  </si>
-  <si>
-    <t>NCC</t>
-  </si>
-  <si>
-    <t>NLOK</t>
-  </si>
-  <si>
-    <t>NXTD</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>PANW</t>
-  </si>
-  <si>
-    <t>PREC</t>
-  </si>
-  <si>
-    <t>PFPT</t>
-  </si>
-  <si>
-    <t>QLYS</t>
-  </si>
-  <si>
-    <t>RDWR</t>
-  </si>
-  <si>
-    <t>RPD</t>
-  </si>
-  <si>
-    <t>SFET</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>SOPH</t>
-  </si>
-  <si>
-    <t>SWI</t>
-  </si>
-  <si>
-    <t>SPLK</t>
-  </si>
-  <si>
-    <t>SSH1V</t>
-  </si>
-  <si>
-    <t>TLSRP</t>
-  </si>
-  <si>
-    <t>SCWX</t>
-  </si>
-  <si>
-    <t>TENB</t>
-  </si>
-  <si>
-    <t>SolarWinds Corporation</t>
-  </si>
-  <si>
-    <t>VRNS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VMX</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>VRSN</t>
-  </si>
-  <si>
-    <t>VMW</t>
-  </si>
-  <si>
-    <t>ZIXI</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>summary</t>
+    <t>DDoS defense and security solutions</t>
+  </si>
+  <si>
+    <t>Cloud delivered endpoint protection</t>
+  </si>
+  <si>
+    <t>Privileged Access Security</t>
+  </si>
+  <si>
+    <t>Web, email &amp; mobile security.</t>
+  </si>
+  <si>
+    <t>Internet security for all devices</t>
+  </si>
+  <si>
+    <t>cloud &amp; data center security</t>
+  </si>
+  <si>
+    <t>Fingerprint biometrics</t>
+  </si>
+  <si>
+    <t>Cybersecurity IP licensing</t>
+  </si>
+  <si>
+    <t>advanced threat protection</t>
+  </si>
+  <si>
+    <t>enterprise security solutions</t>
+  </si>
+  <si>
+    <t>automated security control solutions</t>
+  </si>
+  <si>
+    <t>data center &amp; cloud security</t>
+  </si>
+  <si>
+    <t>secure file transer</t>
+  </si>
+  <si>
+    <t>threat intelligence &amp; network secu</t>
+  </si>
+  <si>
+    <t>email secu</t>
+  </si>
+  <si>
+    <t>information assurance services</t>
+  </si>
+  <si>
+    <t>endpoint, cloud &amp; mobile</t>
+  </si>
+  <si>
+    <t>biometric security solutions</t>
+  </si>
+  <si>
+    <t>Identity and access management</t>
+  </si>
+  <si>
+    <t>threat detection and prevention</t>
+  </si>
+  <si>
+    <t>mobile identity authentication</t>
+  </si>
+  <si>
+    <t>security as a service (SaaS)</t>
+  </si>
+  <si>
+    <t>cloud securiy &amp; compliance</t>
+  </si>
+  <si>
+    <t>application security and delivery</t>
+  </si>
+  <si>
+    <t>security data and analysis solution</t>
+  </si>
+  <si>
+    <t>secure access solutions</t>
+  </si>
+  <si>
+    <t>managed security services</t>
+  </si>
+  <si>
+    <t>workflow solutions and service mnagement software</t>
+  </si>
+  <si>
+    <t>anti-virus &amp; malware protection</t>
+  </si>
+  <si>
+    <t>IT management oftware &amp; monitoring tools</t>
+  </si>
+  <si>
+    <t>big data security</t>
+  </si>
+  <si>
+    <t>priv access control</t>
+  </si>
+  <si>
+    <t>risk management &amp; compliance</t>
+  </si>
+  <si>
+    <t>vuln risk management</t>
+  </si>
+  <si>
+    <t>server, clous and content security</t>
+  </si>
+  <si>
+    <t>data security and analytics</t>
+  </si>
+  <si>
+    <t>smartphone and mobile device</t>
+  </si>
+  <si>
+    <t>security intelligence and compliance</t>
+  </si>
+  <si>
+    <t>internet security solutions</t>
+  </si>
+  <si>
+    <t>cloud computing and virtualization software</t>
+  </si>
+  <si>
+    <t>email encryption and data protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cloud  security. </t>
   </si>
 </sst>
 </file>
@@ -439,13 +586,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -786,8 +932,8 @@
   <dimension ref="A2:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,7 +951,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -821,11 +967,11 @@
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>58</v>
+      <c r="E4" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -833,16 +979,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="6">
+        <v>60</v>
+      </c>
+      <c r="C5" s="5">
         <v>14.59</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>1078</v>
       </c>
       <c r="E5">
         <v>25.6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -850,36 +999,39 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="6">
+        <v>56</v>
+      </c>
+      <c r="C8" s="5">
         <v>106.67</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>16163</v>
       </c>
       <c r="E8">
         <v>26.47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -887,16 +1039,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="6">
+        <v>63</v>
+      </c>
+      <c r="C9" s="5">
         <v>1723.55</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>95163</v>
       </c>
       <c r="E9">
         <v>55.87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -904,13 +1059,16 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="6">
+        <v>59</v>
+      </c>
+      <c r="C10" s="5">
         <v>2.56</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>1520</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -918,26 +1076,29 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="6">
+        <v>65</v>
+      </c>
+      <c r="C12" s="5">
         <v>206.23</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>110</v>
       </c>
       <c r="E12">
         <v>28.48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -945,16 +1106,19 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="6">
+        <v>66</v>
+      </c>
+      <c r="C13" s="5">
         <v>56.76</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>226513</v>
       </c>
       <c r="E13">
         <v>22.35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -962,529 +1126,658 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="6">
+        <v>68</v>
+      </c>
+      <c r="C15" s="5">
         <v>90.8</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>31026</v>
+      </c>
+      <c r="F15" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="F16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C17" s="5">
+        <v>310.25</v>
+      </c>
+      <c r="D17" s="6">
+        <v>76025</v>
+      </c>
+      <c r="F17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="6">
-        <v>310.25</v>
-      </c>
-      <c r="D17" s="7">
-        <v>76025</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C18" s="5">
+        <v>299.98</v>
+      </c>
+      <c r="D18" s="6">
+        <v>12943</v>
+      </c>
+      <c r="F18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="6">
-        <v>299.98</v>
-      </c>
-      <c r="D18" s="7">
-        <v>12943</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="F19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="F20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>217.48</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>12676</v>
       </c>
       <c r="E21">
         <v>23.41</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="F22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="F23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="F24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="F25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="F26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="F27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="F28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>39.21</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>12906</v>
       </c>
       <c r="E29">
         <v>55.23</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="F30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="F31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="F32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="F33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C34" s="5">
+        <v>74.819999999999993</v>
+      </c>
+      <c r="D34" s="6">
+        <v>12709</v>
+      </c>
+      <c r="F34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="6">
-        <v>74.819999999999993</v>
-      </c>
-      <c r="D34" s="7">
-        <v>12709</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>374.83</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>122045</v>
       </c>
       <c r="E35">
         <v>51.56</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="F36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="F37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="F38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="C39" s="5">
+        <v>23.24</v>
+      </c>
+      <c r="D39" s="6">
+        <v>976</v>
+      </c>
+      <c r="F39" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="6">
-        <v>23.24</v>
-      </c>
-      <c r="D39" s="7">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="C40" s="5">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="D40" s="6">
+        <v>2497</v>
+      </c>
+      <c r="F40" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="6">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="D40" s="7">
-        <v>2497</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="F41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="5">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="D42" s="6">
+        <v>752</v>
+      </c>
+      <c r="F42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" s="6">
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="D42" s="7">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>921.75</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <v>189748</v>
       </c>
       <c r="E43">
         <v>166.68</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="F44" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>104</v>
-      </c>
-      <c r="B45" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>13.22</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <v>2239</v>
       </c>
       <c r="E45">
         <v>110.17</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+      <c r="F46" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+      <c r="F47" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+      <c r="F48" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="5">
+        <v>42.62</v>
+      </c>
+      <c r="D49" s="6">
+        <v>5080</v>
+      </c>
+      <c r="F49" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="6">
-        <v>42.62</v>
-      </c>
-      <c r="D49" s="7">
-        <v>5080</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>49</v>
       </c>
       <c r="B50">
         <v>4704</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="F50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="5">
+        <v>59.43</v>
+      </c>
+      <c r="D51" s="6">
+        <v>6666</v>
+      </c>
+      <c r="F51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="6">
-        <v>59.43</v>
-      </c>
-      <c r="D51" s="7">
-        <v>6666</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="C52" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="D52" s="6">
+        <v>30.5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="6">
-        <v>0.36</v>
-      </c>
-      <c r="D52" s="7">
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>22.87</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="6">
         <v>1418</v>
       </c>
       <c r="E53">
         <v>24.65</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="5">
+        <v>187.72</v>
+      </c>
+      <c r="D54" s="6">
+        <v>18321</v>
+      </c>
+      <c r="F54" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="6">
-        <v>187.72</v>
-      </c>
-      <c r="D54" s="7">
-        <v>18321</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="F55" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="7"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="F56" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>110</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="7"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" s="6">
+      <c r="C57" s="5">
         <v>190.01</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="6">
         <v>28974</v>
+      </c>
+      <c r="F57" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/cybersecurity_stocks.xlsx
+++ b/cybersecurity_stocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E88EB0-620D-4BB2-AA18-E85DCA69ED1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E5FCF9-3B42-46EB-B776-CE6FB4E3D37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19410" yWindow="1215" windowWidth="18555" windowHeight="19155" xr2:uid="{C49D2964-27D1-4A91-99C8-4FCFD2A434B5}"/>
+    <workbookView xWindow="14310" yWindow="0" windowWidth="19020" windowHeight="19155" xr2:uid="{C49D2964-27D1-4A91-99C8-4FCFD2A434B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -933,7 +933,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,7 +1591,7 @@
         <v>2239</v>
       </c>
       <c r="E45">
-        <v>110.17</v>
+        <v>14</v>
       </c>
       <c r="F45" t="s">
         <v>149</v>

--- a/cybersecurity_stocks.xlsx
+++ b/cybersecurity_stocks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E5FCF9-3B42-46EB-B776-CE6FB4E3D37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C21A54-AA49-4F00-A8D1-1D3714562652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14310" yWindow="0" windowWidth="19020" windowHeight="19155" xr2:uid="{C49D2964-27D1-4A91-99C8-4FCFD2A434B5}"/>
+    <workbookView xWindow="19860" yWindow="30" windowWidth="18315" windowHeight="20850" xr2:uid="{C49D2964-27D1-4A91-99C8-4FCFD2A434B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>Cyber Security Stock List</t>
   </si>
@@ -522,6 +522,54 @@
   </si>
   <si>
     <t xml:space="preserve">cloud  security. </t>
+  </si>
+  <si>
+    <t>Bottomline Technologies</t>
+  </si>
+  <si>
+    <t>EPAY</t>
+  </si>
+  <si>
+    <t>FLYW</t>
+  </si>
+  <si>
+    <t>AvePoinbt Inc</t>
+  </si>
+  <si>
+    <t>AVPT</t>
+  </si>
+  <si>
+    <t>Teradata Corp</t>
+  </si>
+  <si>
+    <t>TDC</t>
+  </si>
+  <si>
+    <t>Five9 Inc</t>
+  </si>
+  <si>
+    <t>FIVN</t>
+  </si>
+  <si>
+    <t>Progress Software Corp</t>
+  </si>
+  <si>
+    <t>PRGS</t>
+  </si>
+  <si>
+    <t>Calix Inc</t>
+  </si>
+  <si>
+    <t>CALX</t>
+  </si>
+  <si>
+    <t>Appian Corp</t>
+  </si>
+  <si>
+    <t>APPN</t>
+  </si>
+  <si>
+    <t>Flywire Corporation</t>
   </si>
 </sst>
 </file>
@@ -929,11 +977,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FCF080F-901D-4273-8A5B-3493B71950B1}">
-  <dimension ref="A2:F57"/>
+  <dimension ref="A2:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,6 +1828,127 @@
         <v>161</v>
       </c>
     </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="5">
+        <v>23.17</v>
+      </c>
+      <c r="D59" s="6">
+        <v>2882</v>
+      </c>
+      <c r="E59">
+        <v>136.29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="5">
+        <v>15.7</v>
+      </c>
+      <c r="D60" s="6">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" s="5">
+        <v>29.79</v>
+      </c>
+      <c r="D61" s="6">
+        <v>2851</v>
+      </c>
+      <c r="E61">
+        <v>35.049999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" s="5">
+        <v>39.67</v>
+      </c>
+      <c r="D62" s="6">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="5">
+        <v>68.28</v>
+      </c>
+      <c r="D63" s="6">
+        <v>2929</v>
+      </c>
+      <c r="E63">
+        <v>36.71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>173</v>
+      </c>
+      <c r="B64" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" s="5">
+        <v>33.270000000000003</v>
+      </c>
+      <c r="D64" s="6">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>175</v>
+      </c>
+      <c r="B65" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" s="5">
+        <v>40.28</v>
+      </c>
+      <c r="D65" s="6">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cybersecurity_stocks.xlsx
+++ b/cybersecurity_stocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C21A54-AA49-4F00-A8D1-1D3714562652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA6FD91-0C19-4BE0-A1A0-22FA0AD27755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19860" yWindow="30" windowWidth="18315" windowHeight="20850" xr2:uid="{C49D2964-27D1-4A91-99C8-4FCFD2A434B5}"/>
+    <workbookView xWindow="4680" yWindow="750" windowWidth="18510" windowHeight="20850" xr2:uid="{C49D2964-27D1-4A91-99C8-4FCFD2A434B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>Cyber Security Stock List</t>
   </si>
@@ -570,6 +570,12 @@
   </si>
   <si>
     <t>Flywire Corporation</t>
+  </si>
+  <si>
+    <t>*bought out by Sophos</t>
+  </si>
+  <si>
+    <t>private</t>
   </si>
 </sst>
 </file>
@@ -977,11 +983,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FCF080F-901D-4273-8A5B-3493B71950B1}">
-  <dimension ref="A2:F66"/>
+  <dimension ref="A2:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,7 +1445,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1452,7 +1458,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1469,7 +1475,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1489,7 +1495,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1502,7 +1508,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1515,7 +1521,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1528,7 +1534,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1545,7 +1551,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1562,7 +1568,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1575,7 +1581,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1591,8 +1597,11 @@
       <c r="F42" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1612,20 +1621,22 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="5"/>
+      <c r="C44" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="D44" s="6"/>
       <c r="F44" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>103</v>
       </c>
@@ -1645,7 +1656,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1658,7 +1669,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1671,7 +1682,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>

--- a/cybersecurity_stocks.xlsx
+++ b/cybersecurity_stocks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA6FD91-0C19-4BE0-A1A0-22FA0AD27755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4ED365-32E4-4BD4-9C65-A2A72394CD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="750" windowWidth="18510" windowHeight="20850" xr2:uid="{C49D2964-27D1-4A91-99C8-4FCFD2A434B5}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{C49D2964-27D1-4A91-99C8-4FCFD2A434B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,6 +606,14 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -637,10 +645,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -649,8 +658,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -986,8 +997,8 @@
   <dimension ref="A2:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,7 +1120,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
@@ -1216,7 +1227,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -1483,7 +1494,7 @@
         <v>88</v>
       </c>
       <c r="C35" s="5">
-        <v>374.83</v>
+        <v>192</v>
       </c>
       <c r="D35" s="6">
         <v>122045</v>
@@ -1552,7 +1563,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -1582,7 +1593,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -1602,7 +1613,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B43" t="s">
@@ -1637,7 +1648,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="8" t="s">
         <v>103</v>
       </c>
       <c r="B45" t="s">
@@ -1912,7 +1923,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="8" t="s">
         <v>171</v>
       </c>
       <c r="B63" t="s">
@@ -1961,6 +1972,15 @@
       <c r="D66" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A17" r:id="rId1" xr:uid="{995289F5-AA59-4AD6-A9C0-2841B0653ED6}"/>
+    <hyperlink ref="A10" r:id="rId2" xr:uid="{0D00091A-80BA-488A-BC66-CCF836FD80B7}"/>
+    <hyperlink ref="A63" r:id="rId3" xr:uid="{6180B76E-D1AD-4E37-99F9-37A1044B5810}"/>
+    <hyperlink ref="A40" r:id="rId4" xr:uid="{FF865388-047E-42AC-BF9A-EF2964AAEA46}"/>
+    <hyperlink ref="A42" r:id="rId5" xr:uid="{7E3BD694-35F2-42B6-97D7-3431D0C9202D}"/>
+    <hyperlink ref="A45" r:id="rId6" xr:uid="{32A044DB-3E24-4FC0-A173-11F61BA0F6F4}"/>
+    <hyperlink ref="A43" r:id="rId7" xr:uid="{5CE19AC8-AC7E-4A78-94F0-887F70A389DE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/cybersecurity_stocks.xlsx
+++ b/cybersecurity_stocks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4ED365-32E4-4BD4-9C65-A2A72394CD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23F7E64-BB80-4469-A5B2-EB1D858400C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{C49D2964-27D1-4A91-99C8-4FCFD2A434B5}"/>
+    <workbookView xWindow="18615" yWindow="690" windowWidth="19050" windowHeight="20850" xr2:uid="{C49D2964-27D1-4A91-99C8-4FCFD2A434B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -997,7 +997,7 @@
   <dimension ref="A2:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>

--- a/cybersecurity_stocks.xlsx
+++ b/cybersecurity_stocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23F7E64-BB80-4469-A5B2-EB1D858400C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51855261-637A-4459-A762-EA6E5820F751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18615" yWindow="690" windowWidth="19050" windowHeight="20850" xr2:uid="{C49D2964-27D1-4A91-99C8-4FCFD2A434B5}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{C49D2964-27D1-4A91-99C8-4FCFD2A434B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>Cyber Security Stock List</t>
   </si>
@@ -576,6 +576,9 @@
   </si>
   <si>
     <t>private</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -649,7 +652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -659,6 +662,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -997,8 +1001,8 @@
   <dimension ref="A2:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <pane ySplit="4" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,19 +1011,20 @@
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1038,9 +1043,12 @@
       <c r="F4" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="G4" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
@@ -1059,7 +1067,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1069,7 +1077,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1079,7 +1087,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1099,7 +1107,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1119,7 +1127,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
@@ -1136,7 +1144,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1146,7 +1154,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1166,7 +1174,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1186,7 +1194,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1196,7 +1204,7 @@
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -1213,7 +1221,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1570,13 +1578,16 @@
         <v>93</v>
       </c>
       <c r="C40" s="5">
-        <v>39.799999999999997</v>
+        <v>30.69</v>
       </c>
       <c r="D40" s="6">
-        <v>2497</v>
+        <v>1900</v>
       </c>
       <c r="F40" t="s">
         <v>144</v>
+      </c>
+      <c r="G40" s="9">
+        <v>45714</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -1980,6 +1991,7 @@
     <hyperlink ref="A42" r:id="rId5" xr:uid="{7E3BD694-35F2-42B6-97D7-3431D0C9202D}"/>
     <hyperlink ref="A45" r:id="rId6" xr:uid="{32A044DB-3E24-4FC0-A173-11F61BA0F6F4}"/>
     <hyperlink ref="A43" r:id="rId7" xr:uid="{5CE19AC8-AC7E-4A78-94F0-887F70A389DE}"/>
+    <hyperlink ref="A5" r:id="rId8" xr:uid="{C6BDDC4D-F39A-4CF6-AF9E-184C5E93925D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cybersecurity_stocks.xlsx
+++ b/cybersecurity_stocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51855261-637A-4459-A762-EA6E5820F751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572C83CE-8F6F-4C6E-B726-2A50A133F5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{C49D2964-27D1-4A91-99C8-4FCFD2A434B5}"/>
+    <workbookView xWindow="14865" yWindow="675" windowWidth="16605" windowHeight="20850" xr2:uid="{C49D2964-27D1-4A91-99C8-4FCFD2A434B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1001,8 +1001,8 @@
   <dimension ref="A2:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,31 +1478,34 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>87</v>
       </c>
       <c r="C34" s="5">
-        <v>74.819999999999993</v>
+        <v>89.82</v>
       </c>
       <c r="D34" s="6">
-        <v>12709</v>
+        <v>14000</v>
       </c>
       <c r="F34" t="s">
         <v>138</v>
       </c>
+      <c r="G34" s="9">
+        <v>45715</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>88</v>
       </c>
       <c r="C35" s="5">
-        <v>192</v>
+        <v>187.65</v>
       </c>
       <c r="D35" s="6">
         <v>122045</v>
@@ -1512,6 +1515,9 @@
       </c>
       <c r="F35" t="s">
         <v>139</v>
+      </c>
+      <c r="G35" s="9">
+        <v>45715</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1992,6 +1998,8 @@
     <hyperlink ref="A45" r:id="rId6" xr:uid="{32A044DB-3E24-4FC0-A173-11F61BA0F6F4}"/>
     <hyperlink ref="A43" r:id="rId7" xr:uid="{5CE19AC8-AC7E-4A78-94F0-887F70A389DE}"/>
     <hyperlink ref="A5" r:id="rId8" xr:uid="{C6BDDC4D-F39A-4CF6-AF9E-184C5E93925D}"/>
+    <hyperlink ref="A34" r:id="rId9" xr:uid="{EA701455-58F4-458E-9944-656648537727}"/>
+    <hyperlink ref="A35" r:id="rId10" xr:uid="{7D272045-0AF5-4E8E-BCAC-F4870CC3E92E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cybersecurity_stocks.xlsx
+++ b/cybersecurity_stocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572C83CE-8F6F-4C6E-B726-2A50A133F5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0A99C6-B277-4B5B-A1D5-5F95BFFF1A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14865" yWindow="675" windowWidth="16605" windowHeight="20850" xr2:uid="{C49D2964-27D1-4A91-99C8-4FCFD2A434B5}"/>
+    <workbookView xWindow="20115" yWindow="105" windowWidth="17925" windowHeight="11640" xr2:uid="{C49D2964-27D1-4A91-99C8-4FCFD2A434B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -533,9 +533,6 @@
     <t>FLYW</t>
   </si>
   <si>
-    <t>AvePoinbt Inc</t>
-  </si>
-  <si>
     <t>AVPT</t>
   </si>
   <si>
@@ -579,6 +576,9 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>AvePoint Inc</t>
   </si>
 </sst>
 </file>
@@ -1001,8 +1001,8 @@
   <dimension ref="A2:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <pane ySplit="4" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1044,7 @@
         <v>111</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1626,7 +1626,7 @@
         <v>146</v>
       </c>
       <c r="K42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -1657,7 +1657,7 @@
         <v>96</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D44" s="6"/>
       <c r="F44" t="s">
@@ -1723,7 +1723,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>162</v>
       </c>
@@ -1877,9 +1877,9 @@
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B59" t="s">
         <v>164</v>
@@ -1894,26 +1894,29 @@
         <v>136.29</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" t="s">
         <v>165</v>
-      </c>
-      <c r="B60" t="s">
-        <v>166</v>
       </c>
       <c r="C60" s="5">
         <v>15.7</v>
       </c>
       <c r="D60" s="6">
-        <v>2944</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3027</v>
+      </c>
+      <c r="G60" s="9">
+        <v>45718</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" t="s">
         <v>167</v>
-      </c>
-      <c r="B61" t="s">
-        <v>168</v>
       </c>
       <c r="C61" s="5">
         <v>29.79</v>
@@ -1925,12 +1928,12 @@
         <v>35.049999999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>168</v>
+      </c>
+      <c r="B62" t="s">
         <v>169</v>
-      </c>
-      <c r="B62" t="s">
-        <v>170</v>
       </c>
       <c r="C62" s="5">
         <v>39.67</v>
@@ -1939,12 +1942,12 @@
         <v>2984</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" t="s">
         <v>171</v>
-      </c>
-      <c r="B63" t="s">
-        <v>172</v>
       </c>
       <c r="C63" s="5">
         <v>68.28</v>
@@ -1956,12 +1959,12 @@
         <v>36.71</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>172</v>
+      </c>
+      <c r="B64" t="s">
         <v>173</v>
-      </c>
-      <c r="B64" t="s">
-        <v>174</v>
       </c>
       <c r="C64" s="5">
         <v>33.270000000000003</v>
@@ -1972,10 +1975,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65" t="s">
         <v>175</v>
-      </c>
-      <c r="B65" t="s">
-        <v>176</v>
       </c>
       <c r="C65" s="5">
         <v>40.28</v>

--- a/cybersecurity_stocks.xlsx
+++ b/cybersecurity_stocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0A99C6-B277-4B5B-A1D5-5F95BFFF1A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2F8004-1B7D-4D24-B345-B2D1DF1352A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20115" yWindow="105" windowWidth="17925" windowHeight="11640" xr2:uid="{C49D2964-27D1-4A91-99C8-4FCFD2A434B5}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="18420" windowHeight="16410" xr2:uid="{C49D2964-27D1-4A91-99C8-4FCFD2A434B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1002,7 +1002,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1895,7 +1895,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="8" t="s">
         <v>180</v>
       </c>
       <c r="B60" t="s">
@@ -2003,6 +2003,7 @@
     <hyperlink ref="A5" r:id="rId8" xr:uid="{C6BDDC4D-F39A-4CF6-AF9E-184C5E93925D}"/>
     <hyperlink ref="A34" r:id="rId9" xr:uid="{EA701455-58F4-458E-9944-656648537727}"/>
     <hyperlink ref="A35" r:id="rId10" xr:uid="{7D272045-0AF5-4E8E-BCAC-F4870CC3E92E}"/>
+    <hyperlink ref="A60" r:id="rId11" xr:uid="{7972DA0C-6B72-48D7-94FC-780F69AAFDDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cybersecurity_stocks.xlsx
+++ b/cybersecurity_stocks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2F8004-1B7D-4D24-B345-B2D1DF1352A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEB161F-8D86-43AC-8F11-75E7E06494A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="18420" windowHeight="16410" xr2:uid="{C49D2964-27D1-4A91-99C8-4FCFD2A434B5}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{C49D2964-27D1-4A91-99C8-4FCFD2A434B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1002,7 +1002,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1929,17 +1929,20 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="8" t="s">
         <v>168</v>
       </c>
       <c r="B62" t="s">
         <v>169</v>
       </c>
       <c r="C62" s="5">
-        <v>39.67</v>
+        <v>32.479999999999997</v>
       </c>
       <c r="D62" s="6">
-        <v>2984</v>
+        <v>2440</v>
+      </c>
+      <c r="G62" s="9">
+        <v>45725</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2004,6 +2007,7 @@
     <hyperlink ref="A34" r:id="rId9" xr:uid="{EA701455-58F4-458E-9944-656648537727}"/>
     <hyperlink ref="A35" r:id="rId10" xr:uid="{7D272045-0AF5-4E8E-BCAC-F4870CC3E92E}"/>
     <hyperlink ref="A60" r:id="rId11" xr:uid="{7972DA0C-6B72-48D7-94FC-780F69AAFDDB}"/>
+    <hyperlink ref="A62" r:id="rId12" xr:uid="{B8E5BA84-BCB6-4E69-A9ED-E25F63C88885}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
